--- a/Rx_stat_gen1 - Copie.xlsx
+++ b/Rx_stat_gen1 - Copie.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogu5550\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1662A32-3165-427B-853F-3816F5F4DF55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="1380" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31620" yWindow="1380" windowWidth="21600" windowHeight="11385" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="sg1_1 (2)" sheetId="8" r:id="rId1"/>
-    <sheet name="sg1_1 (3)" sheetId="9" r:id="rId2"/>
-    <sheet name="sg1_1" sheetId="7" r:id="rId3"/>
+    <sheet name="ong1" sheetId="8" r:id="rId1"/>
+    <sheet name="ong2" sheetId="9" r:id="rId2"/>
+    <sheet name="ong3" sheetId="10" r:id="rId3"/>
+    <sheet name="ong4" sheetId="7" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,18 +34,27 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={416237C8-2BB9-4A56-9F31-8DD1684575CF}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{416237C8-2BB9-4A56-9F31-8DD1684575CF}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -52,26 +62,91 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={416237C8-2BB9-4A56-9F31-8DD1684575CF}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Identifier la fonction à utiliser.
+Permet d'avoir plusieurs onglets de différentes méthodes.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={808E0479-A765-401A-A650-7E16A2AB8F36}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{808E0479-A765-401A-A650-7E16A2AB8F36}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
+        </r>
       </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={808E0479-A765-401A-A650-7E16A2AB8F36}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Identifier la fonction à utiliser.
+Permet d'avoir plusieurs onglets de différentes méthodes.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>stat_gen1</t>
   </si>
@@ -124,12 +199,6 @@
     <t>2019-12-31</t>
   </si>
   <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
     <t>Sélection</t>
   </si>
   <si>
@@ -141,11 +210,29 @@
   <si>
     <t>41</t>
   </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>tourlou</t>
+  </si>
+  <si>
+    <t>ben oui</t>
+  </si>
+  <si>
+    <t>coco</t>
+  </si>
+  <si>
+    <t>stat_fg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,11 +587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A60907-25CB-47D9-818A-E742AB73C9F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +651,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -595,7 +682,7 @@
         <v>43830</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -605,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11199F67-9886-461C-A89B-93E2A3CEDAB8}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,49 +744,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
-        <v>43101</v>
-      </c>
-      <c r="C2" s="6">
-        <v>43465</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>159</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>43466</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43830</v>
-      </c>
-      <c r="E3">
-        <v>235689</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>43831</v>
-      </c>
-      <c r="C4" s="6">
-        <v>44196</v>
-      </c>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -709,11 +754,116 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5619DCB-7E86-4A73-8508-A29A29F60AD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>43101</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43830</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3">
+        <v>235689</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43830</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,9 +907,6 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -767,19 +914,19 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -798,10 +945,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -809,4 +956,103 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3">
+        <v>235689</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Rx_stat_gen1 - Copie.xlsx
+++ b/Rx_stat_gen1 - Copie.xlsx
@@ -1,60 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\INESSS-QC_inesss\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6453B624-E053-473F-BE56-6FFFBD842E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="1380" windowWidth="21600" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ong1" sheetId="8" r:id="rId1"/>
     <sheet name="ong2" sheetId="9" r:id="rId2"/>
     <sheet name="ong3" sheetId="10" r:id="rId3"/>
     <sheet name="ong4" sheetId="7" r:id="rId4"/>
-    <sheet name="Feuil1" sheetId="11" r:id="rId5"/>
+    <sheet name="ong5" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={416237C8-2BB9-4A56-9F31-8DD1684575CF}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Commentaire à thread]
+        <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -62,27 +48,18 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={416237C8-2BB9-4A56-9F31-8DD1684575CF}</author>
+    <author>tc={416237C8-2BB9-4A57-9F31-8DD1684575CF}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Commentaire à thread]
+        <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -90,27 +67,18 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={808E0479-A765-401A-A650-7E16A2AB8F36}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Commentaire à thread]
+        <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -118,27 +86,18 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={808E0479-A765-401A-A650-7E16A2AB8F36}</author>
+    <author>tc={808E0479-A765-401B-A650-7E16A2AB8F36}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Commentaire à thread]
+        <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -232,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +538,15 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-09-15T19:27:42.54" personId="{BFB772AF-95CC-488B-83CF-CB571DA6E539}" id="{416237C8-2BB9-4A57-9F31-8DD1684575CF}">
+    <text>Identifier la fonction à utiliser.
+Permet d'avoir plusieurs onglets de différentes méthodes.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2020-09-15T19:27:42.54" personId="{BFB772AF-95CC-488B-83CF-CB571DA6E539}" id="{808E0479-A765-401A-A650-7E16A2AB8F36}">
     <text>Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</text>
@@ -586,8 +554,17 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-09-15T19:27:42.54" personId="{BFB772AF-95CC-488B-83CF-CB571DA6E539}" id="{808E0479-A765-401B-A650-7E16A2AB8F36}">
+    <text>Identifier la fonction à utiliser.
+Permet d'avoir plusieurs onglets de différentes méthodes.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -692,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -754,7 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -859,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -959,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Rx_stat_gen1 - Copie.xlsx
+++ b/Rx_stat_gen1 - Copie.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\INESSS-QC_inesss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6453B624-E053-473F-BE56-6FFFBD842E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ong1" sheetId="8" r:id="rId1"/>
@@ -29,18 +28,27 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={416237C8-2BB9-4A56-9F31-8DD1684575CF}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -48,18 +56,27 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={416237C8-2BB9-4A57-9F31-8DD1684575CF}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -67,18 +84,27 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={808E0479-A765-401A-A650-7E16A2AB8F36}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -86,18 +112,27 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={808E0479-A765-401B-A650-7E16A2AB8F36}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Identifier la fonction à utiliser.
 Permet d'avoir plusieurs onglets de différentes méthodes.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -191,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -731,14 +766,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -836,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -936,11 +976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
